--- a/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-9.xlsx
+++ b/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-9.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>omogući njezino</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>snimanje,</t>
+          <t>omogući njezino snimanje,</t>
         </is>
       </c>
     </row>
@@ -449,12 +444,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>kaznom zatvora od jedne do</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>osam godina.</t>
+          <t>kaznom zatvora od jedne do osam godina.</t>
         </is>
       </c>
     </row>
@@ -469,12 +459,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>stavka 1. ovoga članka distribuira, širi, uvozi, posjeduje dječju pornografiju tehnologija.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>kaznit će se tko neovlašteno snima, proizvodi, nudi, izvozi, pribavlja za sebe ili drugoga, prodaje, daje, ili joj svjesno pristupa putem informacijsko</t>
+          <t>stavka 1. ovoga članka kaznit će se tko neovlašteno snima, proizvodi, nudi, distribuira, širi, uvozi, izvozi, pribavlja za sebe ili drugoga, prodaje, daje, posjeduje dječju pornografiju ili joj svjesno pristupa putem informacijsko tehnologija.</t>
         </is>
       </c>
     </row>
@@ -484,17 +469,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(3) Tko dijete položaja ili</t>
+          <t>(3) Tko dijete položaja ili odnosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>silom ili prijetnjom, odnosa zavisnosti, prisili ili</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>obmanom, prijevarom, zlouporabom ovlasti ili teškog navede na snimanje dječje pornografije,</t>
+          <t>silom ili prijetnjom, obmanom, prijevarom, zlouporabom ovlasti ili teškog zavisnosti, prisili ili navede na snimanje dječje pornografije,</t>
         </is>
       </c>
     </row>
@@ -509,12 +489,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kaznom zatvora od tri do</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>dvanaest godina.</t>
+          <t>kaznom zatvora od tri do dvanaest godina.</t>
         </is>
       </c>
     </row>
@@ -529,12 +504,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>naprave, sredstva, računalni počinjenje ili olakšavanje oduzeti, a pornografski ovoga članka će se i</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>programi ili podaci namijenjeni, prilagođeni ili počinjenja kaznenog djela iz stavka 1., 2. i 3. ovoga materijal koji je nastao počinjenjem kaznenog djela iz uništiti.</t>
+          <t>naprave, sredstva, računalni programi ili podaci namijenjeni, prilagođeni ili počinjenje ili olakšavanje počinjenja kaznenog djela iz stavka 1., 2. i 3. ovoga oduzeti, a pornografski materijal koji je nastao počinjenjem kaznenog djela iz ovoga članka će se i uništiti.</t>
         </is>
       </c>
     </row>
@@ -549,12 +519,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>kazniti za proizvodnju i samog ili njega i drugo pristanak svakog od njih i</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>posjedovanje pornografskog materijala koji dijete ako su oni sami taj materijal proizveli i isključivo za njihovu osobnu upotrebu.</t>
+          <t>kazniti za proizvodnju i posjedovanje pornografskog materijala koji samog ili njega i drugo dijete ako su oni sami taj materijal proizveli i pristanak svakog od njih i isključivo za njihovu osobnu upotrebu.</t>
         </is>
       </c>
     </row>
@@ -569,12 +534,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pornografija je materijal koji nepostojeće dijete ili spolno eksplicitnom koji imaju umjetnički, smislu ovoga članka.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>vizualno ili na drugi način prikazuje pravo dijete ili osobu koja izgleda kao dijete, u pravom ili ponašanju ili koji prikazuje spolne organe djece u spolne medicinski ili znanstveni značaj ne smatraju se</t>
+          <t>pornografija je materijal koji vizualno ili na drugi način prikazuje pravo dijete ili nepostojeće dijete ili osobu koja izgleda kao dijete, u pravom ili spolno eksplicitnom ponašanju ili koji prikazuje spolne organe djece u spolne koji imaju umjetnički, medicinski ili znanstveni značaj ne smatraju se smislu ovoga članka.</t>
         </is>
       </c>
     </row>
@@ -589,12 +549,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>djece za pornografske</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>predstave</t>
+          <t>djece za pornografske predstave</t>
         </is>
       </c>
     </row>
@@ -608,7 +563,6 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -621,12 +575,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>namamljuje, vrbuje ili</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>potiče na sudjelovanje u pornografskim predstavama,</t>
+          <t>namamljuje, vrbuje ili potiče na sudjelovanje u pornografskim predstavama,</t>
         </is>
       </c>
     </row>
@@ -641,12 +590,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>kaznom zatvora od jedne do</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>osam godina.</t>
+          <t>kaznom zatvora od jedne do osam godina.</t>
         </is>
       </c>
     </row>
@@ -661,12 +605,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>od pornografskih za pornografske</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>predstava u kojima sudjeluje dijete ili na drugi način predstave,</t>
+          <t>od pornografskih predstava u kojima sudjeluje dijete ili na drugi način za pornografske predstave,</t>
         </is>
       </c>
     </row>
@@ -681,12 +620,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>kaznom zatvora od jedne do</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>deset godina.</t>
+          <t>kaznom zatvora od jedne do deset godina.</t>
         </is>
       </c>
     </row>
@@ -701,12 +635,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>prijetnjom, obmanom, prisili ili navede dijete</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>prijevarom, zlouporabom ovlasti ili teškog položaja ili na sudjelovanje u pornografskoj predstavi,</t>
+          <t>prijetnjom, obmanom, prijevarom, zlouporabom ovlasti ili teškog položaja ili prisili ili navede dijete na sudjelovanje u pornografskoj predstavi,</t>
         </is>
       </c>
     </row>
